--- a/testing_results/inference_time_tai50x15.xlsx
+++ b/testing_results/inference_time_tai50x15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.079592871665955</v>
+        <v>9.197019004821778</v>
       </c>
       <c r="B2" t="n">
-        <v>9.022393965721131</v>
+        <v>8.713128352165223</v>
       </c>
       <c r="C2" t="n">
-        <v>9.087510108947754</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.092191982269288</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.080436491966248</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.082404613494873</v>
-      </c>
-      <c r="G2" t="n">
-        <v>9.087429141998291</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.084806609153748</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.079985523223877</v>
-      </c>
-      <c r="J2" t="n">
-        <v>9.010156989097595</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9.087756419181824</v>
-      </c>
-      <c r="L2" t="n">
-        <v>9.044988393783569</v>
-      </c>
-      <c r="M2" t="n">
-        <v>8.853308463096619</v>
-      </c>
-      <c r="N2" t="n">
-        <v>112.21103951931</v>
+        <v>113.0057914018631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>18.07547762393951</v>
+        <v>18.42169587612152</v>
       </c>
       <c r="B3" t="n">
-        <v>17.92960901260376</v>
+        <v>17.55240581035614</v>
       </c>
       <c r="C3" t="n">
-        <v>18.06874625682831</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.05163908004761</v>
-      </c>
-      <c r="E3" t="n">
-        <v>18.09720261096954</v>
-      </c>
-      <c r="F3" t="n">
-        <v>18.11674835681915</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18.11616117954254</v>
-      </c>
-      <c r="H3" t="n">
-        <v>18.01000051498413</v>
-      </c>
-      <c r="I3" t="n">
-        <v>18.03434345722199</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17.93155043125153</v>
-      </c>
-      <c r="K3" t="n">
-        <v>18.05584170818329</v>
-      </c>
-      <c r="L3" t="n">
-        <v>18.05236115455627</v>
-      </c>
-      <c r="M3" t="n">
-        <v>17.69568157196045</v>
-      </c>
-      <c r="N3" t="n">
-        <v>217.4641986370087</v>
+        <v>222.6834785699844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36.53383405208588</v>
+        <v>37.78200225830078</v>
       </c>
       <c r="B4" t="n">
-        <v>36.09542028903961</v>
+        <v>36.06799178123474</v>
       </c>
       <c r="C4" t="n">
-        <v>36.21953566074372</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.1800422668457</v>
-      </c>
-      <c r="E4" t="n">
-        <v>36.1948805809021</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36.17957472801208</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36.15227460861206</v>
-      </c>
-      <c r="H4" t="n">
-        <v>36.05024688243866</v>
-      </c>
-      <c r="I4" t="n">
-        <v>36.07584042549134</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36.02560379505157</v>
-      </c>
-      <c r="K4" t="n">
-        <v>36.11929612159729</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36.07235012054444</v>
-      </c>
-      <c r="M4" t="n">
-        <v>35.61187586784363</v>
-      </c>
-      <c r="N4" t="n">
-        <v>605.225627732277</v>
+        <v>443.0551343202591</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>92.31367228031158</v>
+      </c>
+      <c r="B5" t="n">
+        <v>91.31864821910858</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1046.408196020126</v>
       </c>
     </row>
   </sheetData>
